--- a/OnBoard/data/maturity_stages.xlsx
+++ b/OnBoard/data/maturity_stages.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC02E25D-0B66-4A67-8F21-76126F44EAE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>SPECIES</t>
   </si>
@@ -113,12 +112,18 @@
   </si>
   <si>
     <t>MULLBAR</t>
+  </si>
+  <si>
+    <t>LIOCDEP</t>
+  </si>
+  <si>
+    <t>CALLSAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,21 +446,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -488,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -499,7 +504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -510,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -521,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -532,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -543,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -554,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -565,7 +570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -576,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -587,7 +592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -598,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -609,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -620,7 +625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,7 +636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -642,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -653,7 +658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -664,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -675,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -686,7 +691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -697,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -708,7 +713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -719,7 +724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -730,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -741,7 +746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -752,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -763,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -774,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -785,7 +790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -794,6 +799,28 @@
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
